--- a/youtube_webscrab/techTFQ.xlsx
+++ b/youtube_webscrab/techTFQ.xlsx
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16267</v>
+        <v>16347</v>
       </c>
       <c r="E2" t="n">
         <v>492</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9168</v>
+        <v>9211</v>
       </c>
       <c r="E3" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18201</v>
+        <v>18258</v>
       </c>
       <c r="E4" t="n">
         <v>1015</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9843</v>
+        <v>9851</v>
       </c>
       <c r="E5" t="n">
         <v>230</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195803</v>
+        <v>196245</v>
       </c>
       <c r="E6" t="n">
-        <v>6808</v>
+        <v>6813</v>
       </c>
       <c r="F6" t="n">
         <v>301</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20531</v>
+        <v>20578</v>
       </c>
       <c r="E7" t="n">
         <v>845</v>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16221</v>
+        <v>16231</v>
       </c>
       <c r="E8" t="n">
         <v>712</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>230468</v>
+        <v>231802</v>
       </c>
       <c r="E9" t="n">
-        <v>5860</v>
+        <v>5878</v>
       </c>
       <c r="F9" t="n">
         <v>195</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35597</v>
+        <v>35621</v>
       </c>
       <c r="E10" t="n">
         <v>1224</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33191</v>
+        <v>33238</v>
       </c>
       <c r="E11" t="n">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F11" t="n">
         <v>55</v>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20571</v>
+        <v>20589</v>
       </c>
       <c r="E12" t="n">
         <v>817</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>136709</v>
+        <v>136894</v>
       </c>
       <c r="E13" t="n">
-        <v>4592</v>
+        <v>4596</v>
       </c>
       <c r="F13" t="n">
         <v>267</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28379</v>
+        <v>28392</v>
       </c>
       <c r="E14" t="n">
         <v>1070</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47518</v>
+        <v>47537</v>
       </c>
       <c r="E15" t="n">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F15" t="n">
         <v>124</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82434</v>
+        <v>82474</v>
       </c>
       <c r="E16" t="n">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="F16" t="n">
         <v>183</v>
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24555</v>
+        <v>24561</v>
       </c>
       <c r="E17" t="n">
         <v>776</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>85637</v>
+        <v>85657</v>
       </c>
       <c r="E18" t="n">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="F18" t="n">
         <v>165</v>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24039</v>
+        <v>24050</v>
       </c>
       <c r="E19" t="n">
         <v>941</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57079</v>
+        <v>57141</v>
       </c>
       <c r="E20" t="n">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="F20" t="n">
         <v>144</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28130</v>
+        <v>28149</v>
       </c>
       <c r="E21" t="n">
         <v>858</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>159946</v>
+        <v>160124</v>
       </c>
       <c r="E22" t="n">
-        <v>4247</v>
+        <v>4249</v>
       </c>
       <c r="F22" t="n">
         <v>190</v>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51286</v>
+        <v>51300</v>
       </c>
       <c r="E23" t="n">
         <v>1393</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22509</v>
+        <v>22521</v>
       </c>
       <c r="E24" t="n">
         <v>1016</v>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41169</v>
+        <v>41194</v>
       </c>
       <c r="E25" t="n">
         <v>1217</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25807</v>
+        <v>25819</v>
       </c>
       <c r="E26" t="n">
         <v>570</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19256</v>
+        <v>19260</v>
       </c>
       <c r="E27" t="n">
         <v>515</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52439</v>
+        <v>52445</v>
       </c>
       <c r="E29" t="n">
         <v>1321</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>13197</v>
+        <v>13203</v>
       </c>
       <c r="E30" t="n">
         <v>536</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>88650</v>
+        <v>88679</v>
       </c>
       <c r="E31" t="n">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="F31" t="n">
         <v>145</v>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>116094</v>
+        <v>116161</v>
       </c>
       <c r="E32" t="n">
         <v>2461</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15751</v>
+        <v>15768</v>
       </c>
       <c r="E33" t="n">
         <v>699</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>27771</v>
+        <v>27774</v>
       </c>
       <c r="E34" t="n">
         <v>537</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>96282</v>
+        <v>96334</v>
       </c>
       <c r="E35" t="n">
         <v>2661</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>159004</v>
+        <v>159080</v>
       </c>
       <c r="E36" t="n">
-        <v>4087</v>
+        <v>4090</v>
       </c>
       <c r="F36" t="n">
         <v>383</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>114466</v>
+        <v>114495</v>
       </c>
       <c r="E37" t="n">
-        <v>4107</v>
+        <v>4109</v>
       </c>
       <c r="F37" t="n">
         <v>333</v>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>27208</v>
+        <v>27216</v>
       </c>
       <c r="E38" t="n">
         <v>623</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>131683</v>
+        <v>131752</v>
       </c>
       <c r="E39" t="n">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="F39" t="n">
         <v>304</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>118324</v>
+        <v>118346</v>
       </c>
       <c r="E40" t="n">
         <v>2925</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>551296</v>
+        <v>551533</v>
       </c>
       <c r="E41" t="n">
-        <v>13081</v>
+        <v>13084</v>
       </c>
       <c r="F41" t="n">
         <v>872</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>151512</v>
+        <v>151623</v>
       </c>
       <c r="E42" t="n">
-        <v>5171</v>
+        <v>5173</v>
       </c>
       <c r="F42" t="n">
         <v>437</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>421530</v>
+        <v>421787</v>
       </c>
       <c r="E43" t="n">
-        <v>10803</v>
+        <v>10805</v>
       </c>
       <c r="F43" t="n">
         <v>800</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>310217</v>
+        <v>310251</v>
       </c>
       <c r="E44" t="n">
-        <v>11868</v>
+        <v>11869</v>
       </c>
       <c r="F44" t="n">
         <v>1030</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>46588</v>
+        <v>46593</v>
       </c>
       <c r="E45" t="n">
         <v>1156</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>205582</v>
+        <v>205602</v>
       </c>
       <c r="E46" t="n">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="F46" t="n">
         <v>286</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>486368</v>
+        <v>486575</v>
       </c>
       <c r="E47" t="n">
-        <v>16863</v>
+        <v>16870</v>
       </c>
       <c r="F47" t="n">
         <v>479</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>63423</v>
+        <v>63435</v>
       </c>
       <c r="E48" t="n">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F48" t="n">
         <v>118</v>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E49" t="n">
         <v>104</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>125887</v>
+        <v>125962</v>
       </c>
       <c r="E50" t="n">
-        <v>4092</v>
+        <v>4096</v>
       </c>
       <c r="F50" t="n">
         <v>292</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>58855</v>
+        <v>58878</v>
       </c>
       <c r="E51" t="n">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="F51" t="n">
         <v>189</v>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>59281</v>
+        <v>59288</v>
       </c>
       <c r="E52" t="n">
         <v>2057</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>60923</v>
+        <v>60971</v>
       </c>
       <c r="E53" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F53" t="n">
         <v>79</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>82764</v>
+        <v>82811</v>
       </c>
       <c r="E54" t="n">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="F54" t="n">
         <v>130</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>317508</v>
+        <v>317633</v>
       </c>
       <c r="E55" t="n">
-        <v>7970</v>
+        <v>7971</v>
       </c>
       <c r="F55" t="n">
         <v>521</v>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8162</v>
+        <v>8164</v>
       </c>
       <c r="E56" t="n">
         <v>424</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1061506</v>
+        <v>1061862</v>
       </c>
       <c r="E57" t="n">
-        <v>24649</v>
+        <v>24652</v>
       </c>
       <c r="F57" t="n">
         <v>965</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>189368</v>
+        <v>189449</v>
       </c>
       <c r="E58" t="n">
-        <v>7106</v>
+        <v>7111</v>
       </c>
       <c r="F58" t="n">
         <v>519</v>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>47465</v>
+        <v>47485</v>
       </c>
       <c r="E59" t="n">
         <v>1343</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>33626</v>
+        <v>33637</v>
       </c>
       <c r="E60" t="n">
         <v>1276</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>93103</v>
+        <v>93170</v>
       </c>
       <c r="E61" t="n">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="F61" t="n">
         <v>321</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5992</v>
+        <v>5993</v>
       </c>
       <c r="E62" t="n">
         <v>150</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>25247</v>
+        <v>25263</v>
       </c>
       <c r="E63" t="n">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F63" t="n">
         <v>44</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>29425</v>
+        <v>29434</v>
       </c>
       <c r="E64" t="n">
         <v>732</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>551086</v>
+        <v>551302</v>
       </c>
       <c r="E65" t="n">
-        <v>17999</v>
+        <v>18000</v>
       </c>
       <c r="F65" t="n">
         <v>1080</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8059</v>
+        <v>8073</v>
       </c>
       <c r="E66" t="n">
         <v>356</v>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9451</v>
+        <v>9457</v>
       </c>
       <c r="E67" t="n">
         <v>273</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="E68" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>110491</v>
+        <v>110540</v>
       </c>
       <c r="E69" t="n">
         <v>3403</v>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="E70" t="n">
         <v>63</v>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7833</v>
+        <v>7836</v>
       </c>
       <c r="E72" t="n">
         <v>212</v>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="E73" t="n">
         <v>119</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E74" t="n">
         <v>70</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>51511</v>
+        <v>51513</v>
       </c>
       <c r="E75" t="n">
         <v>724</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E76" t="n">
         <v>101</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4593</v>
+        <v>4598</v>
       </c>
       <c r="E79" t="n">
         <v>131</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>387749</v>
+        <v>387908</v>
       </c>
       <c r="E80" t="n">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="F80" t="n">
         <v>335</v>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>27826</v>
+        <v>27832</v>
       </c>
       <c r="E81" t="n">
         <v>652</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>730979</v>
+        <v>731204</v>
       </c>
       <c r="E83" t="n">
-        <v>16132</v>
+        <v>16134</v>
       </c>
       <c r="F83" t="n">
         <v>529</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>55235</v>
+        <v>55267</v>
       </c>
       <c r="E84" t="n">
         <v>564</v>
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>159939</v>
+        <v>160048</v>
       </c>
       <c r="E85" t="n">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="F85" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44073</v>
